--- a/Python/RATORI/Map(Matvey).xlsx
+++ b/Python/RATORI/Map(Matvey).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Programs\HardChildhood\Python\RATORI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1CF0B3-B6EC-4450-B29C-5AD970F30011}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE31EC33-CFC3-455B-A504-B324F41EEA63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{48B9F93F-DA1F-4EA8-8D5C-8E8FD0996268}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="14">
   <si>
     <t>1300</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>0411</t>
+  </si>
+  <si>
+    <t>1004</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +159,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -169,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,6 +207,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1438,7 +1448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFC4E29-FCB9-49C4-B986-1D2BB0FB2636}">
   <dimension ref="B2:R18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
@@ -1588,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB2612F-99D7-4672-B14F-B0D98E718351}">
   <dimension ref="B2:BR82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="AM42" sqref="AM42"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3269,11 +3279,11 @@
     <row r="10" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>8</v>
@@ -3314,8 +3324,8 @@
       <c r="P10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q10" s="5" t="s">
-        <v>9</v>
+      <c r="Q10" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>9</v>
@@ -3896,11 +3906,11 @@
     <row r="13" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>8</v>
@@ -3927,7 +3937,7 @@
         <v>9</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>9</v>
@@ -4314,11 +4324,11 @@
     <row r="15" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>8</v>
@@ -4413,8 +4423,8 @@
       <c r="AH15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AI15" s="5" t="s">
-        <v>9</v>
+      <c r="AI15" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="AJ15" s="5" t="s">
         <v>9</v>
@@ -4523,11 +4533,11 @@
     <row r="16" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="1"/>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>8</v>
@@ -4562,8 +4572,8 @@
       <c r="N16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O16" s="5" t="s">
-        <v>9</v>
+      <c r="O16" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>9</v>
@@ -5150,11 +5160,11 @@
     <row r="19" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="1"/>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>8</v>
@@ -5214,7 +5224,7 @@
         <v>9</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X19" s="5" t="s">
         <v>9</v>
@@ -5777,11 +5787,11 @@
     <row r="22" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>8</v>
@@ -5870,11 +5880,11 @@
       <c r="AF22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AG22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH22" s="5" t="s">
-        <v>9</v>
+      <c r="AG22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH22" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="AI22" s="5" t="s">
         <v>9</v>
@@ -5986,11 +5996,11 @@
     <row r="23" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="1"/>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>8</v>
@@ -6005,7 +6015,7 @@
         <v>9</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>9</v>
@@ -6195,11 +6205,11 @@
     <row r="24" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="1"/>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>8</v>
@@ -6292,7 +6302,7 @@
         <v>9</v>
       </c>
       <c r="AH24" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AI24" s="5" t="s">
         <v>9</v>
@@ -6404,11 +6414,11 @@
     <row r="25" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="1"/>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>8</v>
@@ -6432,7 +6442,7 @@
         <v>9</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>9</v>
@@ -6461,8 +6471,8 @@
       <c r="T25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="U25" s="5" t="s">
-        <v>9</v>
+      <c r="U25" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>9</v>
@@ -7658,11 +7668,11 @@
     <row r="31" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>8</v>
@@ -7736,8 +7746,8 @@
       <c r="AA31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AB31" s="5" t="s">
-        <v>9</v>
+      <c r="AB31" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="AC31" s="5" t="s">
         <v>9</v>
@@ -8285,11 +8295,11 @@
     <row r="34" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>'0408', '0408', '0408', '0408', '0408', '0408', '0408', '0408', '0408', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0408', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="1"/>
-        <v>['0408', '0408', '0408', '0408', '0408', '0408', '0408', '0408', '0408', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0401', '0401', '0401', '0401', '0401', '0401', '0401', '0401', '0408', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>8</v>
@@ -8298,28 +8308,28 @@
         <v>31</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N34" s="13" t="s">
         <v>4</v>
@@ -8494,11 +8504,11 @@
     <row r="35" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0410', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0402', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="1"/>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0410', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0402', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>8</v>
@@ -8531,7 +8541,7 @@
         <v>9</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O35" s="5" t="s">
         <v>9</v>
@@ -8703,11 +8713,11 @@
     <row r="36" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0410', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
+        <v>'0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0402', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="1"/>
-        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0410', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
+        <v>['0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0402', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '1004', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0200', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '0100', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300', '1300'],</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>8</v>
@@ -8740,7 +8750,7 @@
         <v>9</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O36" s="5" t="s">
         <v>9</v>
@@ -8802,8 +8812,8 @@
       <c r="AH36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AI36" s="5" t="s">
-        <v>9</v>
+      <c r="AI36" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="AJ36" s="5" t="s">
         <v>9</v>
@@ -10371,6 +10381,9 @@
     </row>
     <row r="47" spans="2:70" x14ac:dyDescent="0.25">
       <c r="F47" s="2"/>
+      <c r="G47">
+        <v>1004</v>
+      </c>
     </row>
     <row r="48" spans="2:70" x14ac:dyDescent="0.25">
       <c r="F48" s="2"/>
@@ -10482,7 +10495,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F34:AM42" numberStoredAsText="1"/>
+    <ignoredError sqref="F40:AM42 F39:X39 Z39:AM39 F38:AM38 F36:M36 O36:AH36 F35:M35 O35:AM35 F37:S37 Z37:AM37 O34:AM34 U37:X37 AJ36:AM36" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <picture r:id="rId3"/>
